--- a/data/trans_bre/P57_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Estudios-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-5.578946239461946</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-7.656218684096583</v>
+        <v>-7.656218684096578</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.2366631834765857</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.2260006562143612</v>
+        <v>-0.226000656214361</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.392197850965745</v>
+        <v>-9.541683732572547</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.36000371372737</v>
+        <v>-12.63430711846318</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.367742546498959</v>
+        <v>-0.3676535067313714</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3320331538413759</v>
+        <v>-0.3343990879700158</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.615937447487645</v>
+        <v>-1.333426285348059</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.520843114230275</v>
+        <v>-3.164001004517335</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.08595025704355599</v>
+        <v>-0.06115514039860902</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.1107503633885137</v>
+        <v>-0.1030462053412025</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-2.39198870626246</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-3.382806321886955</v>
+        <v>-3.382806321886939</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.07770653363763146</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.06879465433929519</v>
+        <v>-0.06879465433929487</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.978451210601361</v>
+        <v>-5.206927157710432</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.347029737774124</v>
+        <v>-6.700168971499402</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1543689660016219</v>
+        <v>-0.1637729279490041</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.126198364528008</v>
+        <v>-0.1301920606055988</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8011097703321279</v>
+        <v>0.5604752119738465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.4654493696871537</v>
+        <v>-0.1076142239258804</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02632283776682332</v>
+        <v>0.01940693184088103</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.009854379275468702</v>
+        <v>-0.003264393939225106</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-4.124313050175354</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-2.943363227239454</v>
+        <v>-2.943363227239448</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.1071433762018309</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.06186312267974053</v>
+        <v>-0.06186312267974042</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.33480859878609</v>
+        <v>-10.09349922232357</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.81902582677982</v>
+        <v>-8.119868429017405</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2535954748144323</v>
+        <v>-0.2461920010290303</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1556978947427569</v>
+        <v>-0.1600415330785415</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.848980737309741</v>
+        <v>2.561680292684722</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.416567715236799</v>
+        <v>2.609731432636266</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.04786202197525695</v>
+        <v>0.07052750642248135</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.05368275061722123</v>
+        <v>0.05838491053147377</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-4.031043166455017</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-5.076467416171643</v>
+        <v>-5.076467416171631</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1325153869789247</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1094911292492415</v>
+        <v>-0.1094911292492413</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.275218423310062</v>
+        <v>-6.325805772497274</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.242743919945441</v>
+        <v>-7.588856634463658</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1975866484425399</v>
+        <v>-0.1999089109362097</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1512552062855355</v>
+        <v>-0.1593522478270971</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.770276982281015</v>
+        <v>-1.807581440754181</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.554797911258031</v>
+        <v>-2.73594793148059</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.05891309152362587</v>
+        <v>-0.06158670676750462</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.05592563703261737</v>
+        <v>-0.0612047310314402</v>
       </c>
     </row>
     <row r="16">
